--- a/Lead to Opportunity.xlsx
+++ b/Lead to Opportunity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjubisht\Documents\GitHub\SNAPDemoProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F0E3FD-ABD9-41D8-9B04-A5BD82F9104D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A42024-8409-4FE6-BF9E-28341FA1F766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -329,12 +329,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>not approved</t>
   </si>
 </sst>
 </file>
@@ -714,7 +708,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,10 +873,7 @@
         <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
